--- a/booksData.xlsx
+++ b/booksData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta\Documents\Faculdade\5º Ano\IPM - Interação Pessoa Máquina\IPM - trabalhos\UnbreakableKid.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9FC8F73-FC67-4807-8B86-EF4113DD5E2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592FAFA2-0DB2-4D85-A35C-60993F4E0C69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="6240" windowWidth="15375" windowHeight="7875" xr2:uid="{483935ED-FF4F-4F77-A398-2D059D1E3BA2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{483935ED-FF4F-4F77-A398-2D059D1E3BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Id</t>
   </si>
@@ -78,12 +78,84 @@
   <si>
     <t>Javier Marías</t>
   </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>My Dark Vanessa</t>
+  </si>
+  <si>
+    <t>Elizabeth Kate Russel</t>
+  </si>
+  <si>
+    <t>A Darker Shade Of Magic</t>
+  </si>
+  <si>
+    <t>V.E.Scwab</t>
+  </si>
+  <si>
+    <t>American Gods</t>
+  </si>
+  <si>
+    <t>Neil Gaiman</t>
+  </si>
+  <si>
+    <t>In The Dream House</t>
+  </si>
+  <si>
+    <t>Six of Crows</t>
+  </si>
+  <si>
+    <t>The Paper Menagerie</t>
+  </si>
+  <si>
+    <t>Bird and Bird</t>
+  </si>
+  <si>
+    <t>Anne Lamott</t>
+  </si>
+  <si>
+    <t>Ken Liu</t>
+  </si>
+  <si>
+    <t>Leigh Bardugo</t>
+  </si>
+  <si>
+    <t>Carmen Maria Machado</t>
+  </si>
+  <si>
+    <t>https://img.wook.pt/images/eragon-christopher-paolini/MXwxMTY4NzU1Mnw3MjU4ODU3fDEzODM1MjMyMDAwMDA=/500x</t>
+  </si>
+  <si>
+    <t>https://img.wook.pt/images/orix-e-crex-margaret-atwood/MXwyNDMzNTgzN3wyMDQyMzAxMHwxNjAzNDA3NjAwMDAw/500x</t>
+  </si>
+  <si>
+    <t>NDV8MjQ0NTY3MDB8MjA1NDY0NzF8MTYwNDI3NTIwMDAwMA== (170×262) (bertrand.pt)</t>
+  </si>
+  <si>
+    <t>350x (350×525) (wook.pt)</t>
+  </si>
+  <si>
+    <t>51S--ZQ9+RL._SY344_BO1,204,203,200_.jpg (231×346) (ssl-images-amazon.com)</t>
+  </si>
+  <si>
+    <t>350x (350×538) (wook.pt)</t>
+  </si>
+  <si>
+    <t>dreamhouse-greywolf-1.jpg (1707×2560) (wp.com)</t>
+  </si>
+  <si>
+    <t>51ND7Ca49DL._SY346_.jpg (238×346) (media-amazon.com)</t>
+  </si>
+  <si>
+    <t>16123882_max.jpg (253×400) (fruugo.com)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +172,39 @@
       <sz val="12"/>
       <color rgb="FF141414"/>
       <name val="OpenSansRegular"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="BryantProMedium"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF989898"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,15 +224,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -440,15 +554,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59253C5B-40AD-4867-AA78-3194CD09CD15}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,9 +581,12 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75">
-      <c r="A2">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -475,8 +598,11 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75">
+      <c r="E2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75">
       <c r="A3">
         <v>2</v>
       </c>
@@ -489,8 +615,11 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75">
+      <c r="E3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75">
       <c r="A4">
         <v>3</v>
       </c>
@@ -503,8 +632,129 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5">
+        <v>9780062976802</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6">
+        <v>9781783295401</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>8587193597</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="E12" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{07F0499E-328C-455C-AEB4-EFFD64556DFA}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{109E6E38-A8D3-41E4-834B-F6D115057BEE}"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://img.bertrand.pt/images/nao-mais-amores-javier-marias/NDV8MjQ0NTY3MDB8MjA1NDY0NzF8MTYwNDI3NTIwMDAwMA==" xr:uid="{F14E70C5-8FF9-456E-8743-786FDABAB088}"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://img.wook.pt/images/my-dark-vanessa-kate-elizabeth-russell/MXwyMzc5MDIzNnwxOTgwMjQyN3wxNTc4NjE0NDAwMDAw/350x" xr:uid="{6CAC659C-DD2A-4CBB-9BBB-7A70A747B3B9}"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://images-na.ssl-images-amazon.com/images/I/51S--ZQ9+RL._SY344_BO1,204,203,200_.jpg" xr:uid="{6DCFAEBA-9F23-43DD-AC1D-947600AAD0DA}"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://img.wook.pt/images/american-gods-neil-gaiman/MXw0NDg2OTN8NTY0ODQ2fDE1NjgwNzAwMDAwMDA=/350x" xr:uid="{367CD624-681B-4A66-94A9-61DA5C8111AF}"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://i1.wp.com/nyunews.com/wp-content/uploads/2019/11/dreamhouse-greywolf-1.jpg?fit=1707%2C2560&amp;ssl=1" xr:uid="{E3693AD7-3E9C-4020-9B0F-42C24B9F5932}"/>
+    <hyperlink ref="E9" r:id="rId8" display="https://m.media-amazon.com/images/I/51ND7Ca49DL._SY346_.jpg" xr:uid="{9E09B858-5BFC-4AF0-AB4E-21C5E89F1E2C}"/>
+    <hyperlink ref="E10" r:id="rId9" display="https://img.fruugo.com/product/2/88/16123882_max.jpg" xr:uid="{C10BA8B6-30F7-4B61-BAA6-DCFAB6ADBC05}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>